--- a/old_database/crypto/library/library_0711_5_0718_7.xlsx
+++ b/old_database/crypto/library/library_0711_5_0718_7.xlsx
@@ -52,7 +52,7 @@
     <t>04.10.12</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_0711_5_0718_7</t>
   </si>
   <si>
     <t>05.01.12</t>
